--- a/goap-master/Assets/Scripts/Config/FoodTem.xlsx
+++ b/goap-master/Assets/Scripts/Config/FoodTem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\githubProj\iktest\goap-master\Assets\Scripts\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB400A6-B152-4DEC-88D7-46ACBC615CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8158A80-475E-4FBA-9641-DEF62CDE0096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,25 +131,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FoodIcon/512/hotdog</t>
-  </si>
-  <si>
-    <t>FoodIcon/512/burger</t>
-  </si>
-  <si>
-    <t>FoodIcon/512/popcorn</t>
-  </si>
-  <si>
-    <t>FoodIcon/512/taco</t>
-  </si>
-  <si>
-    <t>FoodIcon/512/cola</t>
-  </si>
-  <si>
-    <t>FoodIcon/512/beer</t>
-  </si>
-  <si>
-    <t>FoodIcon/512/wine</t>
+    <t>Textures/FoodIcon/hotdog</t>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/burger</t>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/popcorn</t>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/taco</t>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/cola</t>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/beer</t>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/wine</t>
   </si>
 </sst>
 </file>
@@ -1560,10 +1560,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/goap-master/Assets/Scripts/Config/FoodTem.xlsx
+++ b/goap-master/Assets/Scripts/Config/FoodTem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\githubProj\iktest\goap-master\Assets\Scripts\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8158A80-475E-4FBA-9641-DEF62CDE0096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDC657A-DCA2-4A9D-9B75-DF57908F9B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>#key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,51 +112,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Furniture1;Furniture2</t>
-  </si>
-  <si>
-    <t>Furniture1;Furniture4</t>
-  </si>
-  <si>
-    <t>Furniture2;Furniture5</t>
-  </si>
-  <si>
-    <t>Furniture3;Furniture6</t>
-  </si>
-  <si>
-    <t>Furniture4;Furniture7</t>
-  </si>
-  <si>
-    <t>Furniture1;Furniture2;Furniture3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Textures/FoodIcon/hotdog</t>
-  </si>
-  <si>
-    <t>Textures/FoodIcon/burger</t>
-  </si>
-  <si>
-    <t>Textures/FoodIcon/popcorn</t>
-  </si>
-  <si>
-    <t>Textures/FoodIcon/taco</t>
-  </si>
-  <si>
-    <t>Textures/FoodIcon/cola</t>
-  </si>
-  <si>
-    <t>Textures/FoodIcon/beer</t>
-  </si>
-  <si>
-    <t>Textures/FoodIcon/wine</t>
+    <t>Textures/FoodIcon/512/hotdog</t>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/512/popcorn</t>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/512/taco</t>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/512/cola</t>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/512/beer</t>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/512/wine</t>
+  </si>
+  <si>
+    <t>NeedFurniture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的furniture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furniture2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furniture3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furniture4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furniture5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furniture6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furniture7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotdog;burger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cola</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotdogBurger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures/FoodIcon/512/burger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotdogBurgerpoPcorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotdog;burger;popcorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +293,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +321,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -252,8 +363,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="251">
+  <cellStyleXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,8 +1129,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,8 +1152,23 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="251" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="251" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="251" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="251">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="251">
+  <cellStyles count="252">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1155,6 +1295,7 @@
     <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="好" xfId="251" builtinId="26"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1557,13 +1698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1572,9 +1713,11 @@
     <col min="2" max="2" width="43.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="7" width="22" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,8 +1730,17 @@
       <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1601,8 +1753,17 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1615,104 +1776,208 @@
       <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:A5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/goap-master/Assets/Scripts/Config/FoodTem.xlsx
+++ b/goap-master/Assets/Scripts/Config/FoodTem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\githubProj\iktest\goap-master\Assets\Scripts\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDC657A-DCA2-4A9D-9B75-DF57908F9B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89772218-BED0-4CDA-B2D1-E786FE061E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>#key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,29 @@
   </si>
   <si>
     <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HavePlate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有盘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1698,13 +1721,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1714,10 +1737,10 @@
     <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="7" width="22" style="2" customWidth="1"/>
+    <col min="6" max="8" width="22" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1739,8 +1762,11 @@
       <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1762,8 +1788,11 @@
       <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1785,8 +1814,11 @@
       <c r="G3" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1808,8 +1840,11 @@
       <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1831,8 +1866,11 @@
       <c r="G5" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1854,8 +1892,11 @@
       <c r="G6" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1877,8 +1918,11 @@
       <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1900,8 +1944,11 @@
       <c r="G8" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1923,8 +1970,11 @@
       <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="H9" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1946,8 +1996,11 @@
       <c r="G10" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -1962,8 +2015,11 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -1978,6 +2034,9 @@
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:A5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/goap-master/Assets/Scripts/Config/FoodTem.xlsx
+++ b/goap-master/Assets/Scripts/Config/FoodTem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\githubProj\iktest\goap-master\Assets\Scripts\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89772218-BED0-4CDA-B2D1-E786FE061E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC34DC8A-F7B6-4AEF-8F17-5CEA746CF4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>#key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,30 @@
   </si>
   <si>
     <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物prefab位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabLocation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1721,26 +1745,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="8" width="22" style="2" customWidth="1"/>
+    <col min="2" max="3" width="43.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="9" width="22" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1748,25 +1772,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1774,25 +1801,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1800,25 +1830,28 @@
         <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1826,25 +1859,28 @@
         <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="H4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1852,25 +1888,28 @@
         <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1878,25 +1917,28 @@
         <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="H6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1904,25 +1946,28 @@
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1930,25 +1975,28 @@
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1956,25 +2004,28 @@
         <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1982,59 +2033,68 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
         <v>60</v>
       </c>
     </row>

--- a/goap-master/Assets/Scripts/Config/FoodTem.xlsx
+++ b/goap-master/Assets/Scripts/Config/FoodTem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\githubProj\iktest\goap-master\Assets\Scripts\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC34DC8A-F7B6-4AEF-8F17-5CEA746CF4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B728C9B1-66E4-4C97-B71E-CF935EF7A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1748,10 +1748,10 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
